--- a/data/AdvCards.xlsx
+++ b/data/AdvCards.xlsx
@@ -108,12 +108,6 @@
     <t>Armour</t>
   </si>
   <si>
-    <t>weapon</t>
-  </si>
-  <si>
-    <t>protection</t>
-  </si>
-  <si>
     <t>Shield</t>
   </si>
   <si>
@@ -166,6 +160,12 @@
   </si>
   <si>
     <t>You have found some old wisdom book.\n\rIncrease your inteligence by 1.</t>
+  </si>
+  <si>
+    <t>Weapon</t>
+  </si>
+  <si>
+    <t>Protection</t>
   </si>
 </sst>
 </file>
@@ -508,7 +508,7 @@
   <dimension ref="C5:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:H10"/>
+      <selection activeCell="J17" sqref="J17:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,7 +553,7 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
@@ -573,7 +573,7 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -593,7 +593,7 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -630,10 +630,10 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
         <v>44</v>
-      </c>
-      <c r="E10" t="s">
-        <v>46</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
@@ -650,10 +650,10 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
@@ -710,10 +710,10 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
         <v>39</v>
-      </c>
-      <c r="E14" t="s">
-        <v>41</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -725,7 +725,7 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="3:10" x14ac:dyDescent="0.25">
@@ -762,7 +762,7 @@
         <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
         <v>14</v>
@@ -780,7 +780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>11</v>
       </c>
@@ -788,13 +788,13 @@
         <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H17" t="s">
         <v>17</v>
@@ -802,11 +802,8 @@
       <c r="I17">
         <v>1</v>
       </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>12</v>
       </c>
@@ -814,13 +811,13 @@
         <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H18" t="s">
         <v>17</v>
@@ -828,11 +825,8 @@
       <c r="I18">
         <v>1</v>
       </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>13</v>
       </c>
@@ -840,53 +834,53 @@
         <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
         <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H20">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H21">
         <v>1</v>
